--- a/Edo-common-main/Assets/Database/0_Common/Item/list_items.xlsx
+++ b/Edo-common-main/Assets/Database/0_Common/Item/list_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Edo-common\Assets\Database\0_Common\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\0_Common\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE6D9B8-0D2B-416A-ACAF-C8C445DDD58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB3B35-3CC4-4A7D-8A86-2D286D239184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -1351,18 +1351,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="76" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="84" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="37.5">
+    <row r="22" spans="1:9" ht="36">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="37.5">
+    <row r="45" spans="1:9" ht="36">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="37.5">
+    <row r="46" spans="1:9" ht="36">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="37.5">
+    <row r="47" spans="1:9" ht="36">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="37.5">
+    <row r="48" spans="1:9" ht="36">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="37.5">
+    <row r="49" spans="1:9" ht="36">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="37.5">
+    <row r="50" spans="1:9" ht="36">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3438,10 +3438,10 @@
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
